--- a/scripts/data/data.xlsx
+++ b/scripts/data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\184 - IVY NAILS &amp; SPA - LLDW01\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\thienan-lldtek.github.io\184_IVY_NAILS_&amp;_SPA_LLDW01\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C87B5AB-98E1-4FA0-A10B-F1F4AE28E167}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91AE438-21FF-4193-89F9-FCE1A7ACD957}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="482" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
   <si>
     <t>Service Name</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Gel Color On Toes W/ Pedicure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -559,9 +562,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,9 +573,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -982,9 +979,9 @@
   <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1001,16 +998,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1039,7 +1036,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -1049,8 +1046,8 @@
         <f t="shared" ref="C3:C11" si="0">B3</f>
         <v>The Classic Manicure</v>
       </c>
-      <c r="D3" s="38">
-        <v>20</v>
+      <c r="D3" s="38" t="s">
+        <v>83</v>
       </c>
       <c r="E3" s="19">
         <v>0</v>
@@ -1074,8 +1071,8 @@
         <f t="shared" si="0"/>
         <v>Gel Polish Manicure</v>
       </c>
-      <c r="D4" s="8">
-        <v>30</v>
+      <c r="D4" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1099,8 +1096,8 @@
         <f t="shared" si="0"/>
         <v>The Deluxe Manicure</v>
       </c>
-      <c r="D5" s="8">
-        <v>25</v>
+      <c r="D5" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1124,8 +1121,8 @@
         <f t="shared" si="0"/>
         <v>The New Signature Manicure</v>
       </c>
-      <c r="D6" s="8">
-        <v>35</v>
+      <c r="D6" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1149,8 +1146,8 @@
         <f t="shared" si="0"/>
         <v>Hollywood Gel Polish Manicure</v>
       </c>
-      <c r="D7" s="8">
-        <v>45</v>
+      <c r="D7" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1174,8 +1171,8 @@
         <f t="shared" si="0"/>
         <v>The Classic Spa</v>
       </c>
-      <c r="D8" s="8">
-        <v>26</v>
+      <c r="D8" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1199,8 +1196,8 @@
         <f t="shared" si="0"/>
         <v>The Classic Spa With Gel</v>
       </c>
-      <c r="D9" s="8">
-        <v>38</v>
+      <c r="D9" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1224,8 +1221,8 @@
         <f t="shared" si="0"/>
         <v>The Spa Pedicure Plus</v>
       </c>
-      <c r="D10" s="8">
-        <v>32</v>
+      <c r="D10" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1249,8 +1246,8 @@
         <f t="shared" si="0"/>
         <v>The Spa Pedicure Plus With Gel</v>
       </c>
-      <c r="D11" s="8">
-        <v>44</v>
+      <c r="D11" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1274,8 +1271,8 @@
         <f>B12</f>
         <v>The Ultimate Plus (The Man Pedicure)</v>
       </c>
-      <c r="D12" s="8">
-        <v>35</v>
+      <c r="D12" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1299,8 +1296,8 @@
         <f t="shared" ref="C13:C71" si="1">B13</f>
         <v>The Ultimate Plus (The Man Pedicure) With Gel</v>
       </c>
-      <c r="D13" s="8">
-        <v>47</v>
+      <c r="D13" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1324,8 +1321,8 @@
         <f t="shared" si="1"/>
         <v>The Signature Spa Pedicure</v>
       </c>
-      <c r="D14" s="8">
-        <v>40</v>
+      <c r="D14" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1349,8 +1346,8 @@
         <f t="shared" si="1"/>
         <v>The Signature Spa Pedicure With Gel</v>
       </c>
-      <c r="D15" s="8">
-        <v>52</v>
+      <c r="D15" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1374,8 +1371,8 @@
         <f t="shared" si="1"/>
         <v>The Deluxe Spa Pedicure</v>
       </c>
-      <c r="D16" s="8">
-        <v>50</v>
+      <c r="D16" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1399,8 +1396,8 @@
         <f t="shared" si="1"/>
         <v>The Deluxe Spa Pedicure With Gel</v>
       </c>
-      <c r="D17" s="8">
-        <v>62</v>
+      <c r="D17" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1424,8 +1421,8 @@
         <f t="shared" si="1"/>
         <v>The Royal Treatment</v>
       </c>
-      <c r="D18" s="8">
-        <v>60</v>
+      <c r="D18" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1441,7 +1438,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="10" t="s">
         <v>28</v>
       </c>
@@ -1449,8 +1446,8 @@
         <f t="shared" si="1"/>
         <v>The Royal Treatment With Gel</v>
       </c>
-      <c r="D19" s="11">
-        <v>72</v>
+      <c r="D19" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="E19" s="12">
         <v>0</v>
@@ -1476,8 +1473,8 @@
         <f t="shared" si="1"/>
         <v>Acylic New Set</v>
       </c>
-      <c r="D20" s="8">
-        <v>40</v>
+      <c r="D20" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1501,8 +1498,8 @@
         <f t="shared" si="1"/>
         <v>Acylic New Set With Gel</v>
       </c>
-      <c r="D21" s="8">
-        <v>45</v>
+      <c r="D21" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1526,8 +1523,8 @@
         <f t="shared" si="1"/>
         <v>Fill</v>
       </c>
-      <c r="D22" s="8">
-        <v>30</v>
+      <c r="D22" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -1551,8 +1548,8 @@
         <f t="shared" si="1"/>
         <v>Fill With Gel</v>
       </c>
-      <c r="D23" s="8">
-        <v>35</v>
+      <c r="D23" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -1576,8 +1573,8 @@
         <f t="shared" si="1"/>
         <v>Ombre New Set With Clear Gel</v>
       </c>
-      <c r="D24" s="8">
-        <v>50</v>
+      <c r="D24" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -1601,8 +1598,8 @@
         <f t="shared" si="1"/>
         <v>Dip Powder On Natural Nails</v>
       </c>
-      <c r="D25" s="8">
-        <v>40</v>
+      <c r="D25" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1626,8 +1623,8 @@
         <f t="shared" si="1"/>
         <v>Dip Ombre</v>
       </c>
-      <c r="D26" s="8">
-        <v>55</v>
+      <c r="D26" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -1651,8 +1648,8 @@
         <f t="shared" si="1"/>
         <v>Gel Extension</v>
       </c>
-      <c r="D27" s="8">
-        <v>55</v>
+      <c r="D27" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -1676,8 +1673,8 @@
         <f>B28</f>
         <v>Plain Facial</v>
       </c>
-      <c r="D28" s="49">
-        <v>45</v>
+      <c r="D28" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -1685,7 +1682,7 @@
       <c r="F28" s="9">
         <v>0</v>
       </c>
-      <c r="G28" s="50">
+      <c r="G28" s="48">
         <v>45</v>
       </c>
       <c r="H28" s="24">
@@ -1695,7 +1692,7 @@
       <c r="J28" s="27"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="10" t="s">
         <v>58</v>
       </c>
@@ -1703,8 +1700,8 @@
         <f>B29</f>
         <v>European Facial</v>
       </c>
-      <c r="D29" s="11">
-        <v>60</v>
+      <c r="D29" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E29" s="12">
         <v>0</v>
@@ -1732,8 +1729,8 @@
         <f t="shared" si="1"/>
         <v>Gel Color On Acrylic W/ Fill Or New Set</v>
       </c>
-      <c r="D30" s="8">
-        <v>12</v>
+      <c r="D30" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -1757,8 +1754,8 @@
         <f t="shared" si="1"/>
         <v>Gel Clear On Acrylic W/ Fill Or New Set</v>
       </c>
-      <c r="D31" s="8">
-        <v>7</v>
+      <c r="D31" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -1782,8 +1779,8 @@
         <f t="shared" si="1"/>
         <v>Gel Color On Toes W/ Pedicure</v>
       </c>
-      <c r="D32" s="8">
-        <v>12</v>
+      <c r="D32" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -1807,8 +1804,8 @@
         <f t="shared" si="1"/>
         <v>French Tips</v>
       </c>
-      <c r="D33" s="8">
-        <v>7</v>
+      <c r="D33" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -1832,8 +1829,8 @@
         <f t="shared" si="1"/>
         <v>Acrylic Cut Down W/ Fill</v>
       </c>
-      <c r="D34" s="8">
-        <v>5</v>
+      <c r="D34" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -1857,8 +1854,8 @@
         <f t="shared" si="1"/>
         <v>Take Off Enhanced Nails Only</v>
       </c>
-      <c r="D35" s="8">
-        <v>20</v>
+      <c r="D35" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -1882,8 +1879,8 @@
         <f t="shared" si="1"/>
         <v>Soak Off Gel Polish Only</v>
       </c>
-      <c r="D36" s="8">
-        <v>10</v>
+      <c r="D36" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -1907,8 +1904,8 @@
         <f t="shared" si="1"/>
         <v>Nail Repair</v>
       </c>
-      <c r="D37" s="8">
-        <v>5</v>
+      <c r="D37" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -1932,8 +1929,8 @@
         <f t="shared" si="1"/>
         <v>Acrylic Toe</v>
       </c>
-      <c r="D38" s="8">
-        <v>8</v>
+      <c r="D38" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
@@ -1957,8 +1954,8 @@
         <f t="shared" si="1"/>
         <v>Design Nails Or Toes</v>
       </c>
-      <c r="D39" s="8">
-        <v>6</v>
+      <c r="D39" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -1982,8 +1979,8 @@
         <f t="shared" si="1"/>
         <v>Nail Buffing Shine</v>
       </c>
-      <c r="D40" s="8">
-        <v>8</v>
+      <c r="D40" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -2007,8 +2004,8 @@
         <f t="shared" si="1"/>
         <v>Callus Treatment</v>
       </c>
-      <c r="D41" s="8">
-        <v>8</v>
+      <c r="D41" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -2032,8 +2029,8 @@
         <f t="shared" si="1"/>
         <v>Sea Sea Exfoliation &amp; Cooling Mask</v>
       </c>
-      <c r="D42" s="8">
-        <v>6</v>
+      <c r="D42" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -2057,8 +2054,8 @@
         <f t="shared" si="1"/>
         <v>Paraffin Moisturizing &amp; Nourish</v>
       </c>
-      <c r="D43" s="8">
-        <v>10</v>
+      <c r="D43" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
@@ -2082,8 +2079,8 @@
         <f t="shared" si="1"/>
         <v>Polish Change Hands</v>
       </c>
-      <c r="D44" s="8">
-        <v>12</v>
+      <c r="D44" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
@@ -2107,8 +2104,8 @@
         <f t="shared" si="1"/>
         <v>Polish Change Toes</v>
       </c>
-      <c r="D45" s="8">
-        <v>15</v>
+      <c r="D45" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
@@ -2132,8 +2129,8 @@
         <f t="shared" si="1"/>
         <v>Gel Polish Change Hands</v>
       </c>
-      <c r="D46" s="8">
-        <v>20</v>
+      <c r="D46" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
@@ -2157,8 +2154,8 @@
         <f t="shared" si="1"/>
         <v>Gel Polish Change Toes</v>
       </c>
-      <c r="D47" s="8">
-        <v>23</v>
+      <c r="D47" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -2182,8 +2179,8 @@
         <f t="shared" si="1"/>
         <v>Extra Massage W/ Mani &amp; Pedi Only 5 Mins</v>
       </c>
-      <c r="D48" s="8">
-        <v>7</v>
+      <c r="D48" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -2199,7 +2196,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="10" t="s">
         <v>74</v>
       </c>
@@ -2207,8 +2204,8 @@
         <f t="shared" si="1"/>
         <v>Extra Massage W/ Mani &amp; Pedi Only 12 Mins</v>
       </c>
-      <c r="D49" s="11">
-        <v>10</v>
+      <c r="D49" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E49" s="12">
         <v>1</v>
@@ -2236,8 +2233,8 @@
         <f t="shared" si="1"/>
         <v>Manicure W/ Gel</v>
       </c>
-      <c r="D50" s="8">
-        <v>18</v>
+      <c r="D50" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
@@ -2263,8 +2260,8 @@
         <f t="shared" si="1"/>
         <v>Spa Pedicure W/ Gel</v>
       </c>
-      <c r="D51" s="8">
-        <v>25</v>
+      <c r="D51" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
@@ -2290,8 +2287,8 @@
         <f t="shared" si="1"/>
         <v>Hand Polish W/ Gel</v>
       </c>
-      <c r="D52" s="8">
-        <v>10</v>
+      <c r="D52" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -2317,8 +2314,8 @@
         <f t="shared" si="1"/>
         <v>Toe Polish W/ Gel</v>
       </c>
-      <c r="D53" s="8">
-        <v>12</v>
+      <c r="D53" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
@@ -2344,8 +2341,8 @@
         <f t="shared" si="1"/>
         <v>Hand Polish Regular</v>
       </c>
-      <c r="D54" s="8">
-        <v>7</v>
+      <c r="D54" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
@@ -2363,7 +2360,7 @@
       <c r="J54" s="27"/>
     </row>
     <row r="55" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="53"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="10" t="s">
         <v>56</v>
       </c>
@@ -2371,8 +2368,8 @@
         <f t="shared" si="1"/>
         <v>Toe Polish Regular</v>
       </c>
-      <c r="D55" s="11">
-        <v>10</v>
+      <c r="D55" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E55" s="12">
         <v>1</v>
@@ -2390,7 +2387,7 @@
       <c r="J55" s="27"/>
     </row>
     <row r="56" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -2400,8 +2397,8 @@
         <f t="shared" si="1"/>
         <v>Eyes</v>
       </c>
-      <c r="D56" s="8">
-        <v>10</v>
+      <c r="D56" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -2427,8 +2424,8 @@
         <f t="shared" si="1"/>
         <v>Lip</v>
       </c>
-      <c r="D57" s="23">
-        <v>8</v>
+      <c r="D57" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -2454,8 +2451,8 @@
         <f t="shared" si="1"/>
         <v>Back</v>
       </c>
-      <c r="D58" s="23">
-        <v>50</v>
+      <c r="D58" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
@@ -2481,8 +2478,8 @@
         <f t="shared" si="1"/>
         <v>Eyebrow &amp; Lip</v>
       </c>
-      <c r="D59" s="23">
-        <v>17</v>
+      <c r="D59" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -2508,8 +2505,8 @@
         <f t="shared" si="1"/>
         <v>Eyebrow, Lip &amp; Chin</v>
       </c>
-      <c r="D60" s="23">
-        <v>26</v>
+      <c r="D60" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -2535,8 +2532,8 @@
         <f t="shared" si="1"/>
         <v>Full Face</v>
       </c>
-      <c r="D61" s="23">
-        <v>37</v>
+      <c r="D61" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -2562,8 +2559,8 @@
         <f t="shared" si="1"/>
         <v>Neck Or Cheek</v>
       </c>
-      <c r="D62" s="23">
-        <v>25</v>
+      <c r="D62" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -2589,8 +2586,8 @@
         <f t="shared" si="1"/>
         <v>Under Arm</v>
       </c>
-      <c r="D63" s="23">
-        <v>20</v>
+      <c r="D63" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -2616,8 +2613,8 @@
         <f t="shared" si="1"/>
         <v>Chest</v>
       </c>
-      <c r="D64" s="23">
-        <v>40</v>
+      <c r="D64" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E64" s="2">
         <v>1</v>
@@ -2643,8 +2640,8 @@
         <f t="shared" si="1"/>
         <v>Chin</v>
       </c>
-      <c r="D65" s="23">
-        <v>10</v>
+      <c r="D65" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
@@ -2670,8 +2667,8 @@
         <f t="shared" si="1"/>
         <v>Bikini</v>
       </c>
-      <c r="D66" s="23">
-        <v>45</v>
+      <c r="D66" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -2697,8 +2694,8 @@
         <f t="shared" si="1"/>
         <v>Brazilian</v>
       </c>
-      <c r="D67" s="23">
-        <v>60</v>
+      <c r="D67" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -2724,8 +2721,8 @@
         <f t="shared" si="1"/>
         <v>Full Arm</v>
       </c>
-      <c r="D68" s="23">
-        <v>45</v>
+      <c r="D68" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -2751,8 +2748,8 @@
         <f t="shared" si="1"/>
         <v>Half Arm</v>
       </c>
-      <c r="D69" s="23">
-        <v>30</v>
+      <c r="D69" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -2770,7 +2767,7 @@
       <c r="J69" s="27"/>
     </row>
     <row r="70" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="7" t="s">
         <v>13</v>
       </c>
@@ -2778,8 +2775,8 @@
         <f t="shared" si="1"/>
         <v>Full Legs</v>
       </c>
-      <c r="D70" s="8">
-        <v>60</v>
+      <c r="D70" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -2797,7 +2794,7 @@
       <c r="J70" s="27"/>
     </row>
     <row r="71" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="43" t="s">
         <v>14</v>
       </c>
@@ -2805,19 +2802,19 @@
         <f t="shared" si="1"/>
         <v>Half Legs</v>
       </c>
-      <c r="D71" s="44">
+      <c r="D71" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="44">
+        <v>1</v>
+      </c>
+      <c r="F71" s="45">
+        <v>0</v>
+      </c>
+      <c r="G71" s="46">
         <v>40</v>
       </c>
-      <c r="E71" s="45">
-        <v>1</v>
-      </c>
-      <c r="F71" s="46">
-        <v>0</v>
-      </c>
-      <c r="G71" s="47">
-        <v>40</v>
-      </c>
-      <c r="H71" s="48">
+      <c r="H71" s="47">
         <v>1</v>
       </c>
       <c r="I71" s="27"/>
